--- a/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
+++ b/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\codigo\01-preprocesamiento-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCDB68E-1CD0-4BA4-903F-F68A9E716F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADEFEA-FA16-41F7-B97D-88F27D19FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Detalle_Columnas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Zox/8z7ArMbSr8cwSswyggUwICMBYiEBDwVOz+5yWMM="/>
@@ -29,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Silvia Gonzalez</author>
   </authors>
   <commentList>
     <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -40,10 +40,34 @@
             <rFont val="Calibri"/>
             <scheme val="minor"/>
           </rPr>
-          <t>======
+          <t xml:space="preserve">======
 ID#AAABb4BQ9uE
 Silvia Gonzalez    (2025-01-18 15:09:07)
-Se puede usar para completar cocina_equipada cuando este vale 'Sólo cocina amueblada'</t>
+Usado  'Sólo cocina amueblada' para completar la columna cocina. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="1" shapeId="0" xr:uid="{6A26C071-83A7-4F34-8581-F67227E14601}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Silvia Gonzalez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Unir con tiene_piscina</t>
         </r>
       </text>
     </comment>
@@ -89,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="349">
   <si>
     <t>orden_dataframe</t>
   </si>
@@ -1014,18 +1038,12 @@
     <t>eliminar, pocos valores y hoy en dia no aporta</t>
   </si>
   <si>
-    <t>instalaciones_tv_centralizada</t>
-  </si>
-  <si>
     <t>✔</t>
   </si>
   <si>
     <t>Indica si la propiedad tiene instalación de TV centralizada.</t>
   </si>
   <si>
-    <t>instalaciones_tv_individual</t>
-  </si>
-  <si>
     <t>Indica si la propiedad tiene instalación de TV individual.</t>
   </si>
   <si>
@@ -1045,9 +1063,6 @@
   </si>
   <si>
     <t>tiene_piscina</t>
-  </si>
-  <si>
-    <t>1 y nan</t>
   </si>
   <si>
     <t>pner nan como 0</t>
@@ -1315,12 +1330,51 @@
   <si>
     <t>numero de visitas a la vivienda</t>
   </si>
+  <si>
+    <t>instalacion_tv_centralizada</t>
+  </si>
+  <si>
+    <t>instalacion_tv_individual</t>
+  </si>
+  <si>
+    <t>1,0 y nan en redpiso y pisosmadrid no tenemos valores  revisar si se puede tener este valor</t>
+  </si>
+  <si>
+    <t>poner los nulos a -1</t>
+  </si>
+  <si>
+    <t>1 y nan . En pisos.com se puede buscar el valor en la descripcion detallada</t>
+  </si>
+  <si>
+    <t>Indica si tiene o no piscina</t>
+  </si>
+  <si>
+    <t>en el nan poner -1 o 0</t>
+  </si>
+  <si>
+    <t>ver si merece la pena dejar esta columna o no, quiza se pueda buscar la palabra urbanización en la descripción y si es chalet con piscina se da por hecho que es privada entonces sobraria esta columna</t>
+  </si>
+  <si>
+    <t>solo 17 valores no nulos. Eliminar columna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿quitar? O juntar con alarma </t>
+  </si>
+  <si>
+    <t>0 , 1 y nan</t>
+  </si>
+  <si>
+    <t>poner -1 en los nulos</t>
+  </si>
+  <si>
+    <t>1,0,nan (ver si lo juntamos con el tipo que es señorial, economica,…)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,8 +1457,21 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,6 +1488,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1443,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1491,6 +1564,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,10 +1831,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1765,7 +1848,7 @@
     <col min="8" max="8" width="37.7265625" customWidth="1"/>
     <col min="9" max="9" width="95.08984375" customWidth="1"/>
     <col min="10" max="10" width="78.26953125" customWidth="1"/>
-    <col min="11" max="11" width="113.453125" customWidth="1"/>
+    <col min="11" max="11" width="177.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="28" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3294,7 +3377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3321,7 +3404,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3348,7 +3431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3375,7 +3458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3400,7 +3483,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3427,7 +3510,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3457,7 +3540,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3481,7 +3564,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3508,12 +3591,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>163</v>
@@ -3521,21 +3604,27 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>163</v>
@@ -3543,21 +3632,27 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+      <c r="I58" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>163</v>
@@ -3573,13 +3668,19 @@
         <v>143</v>
       </c>
       <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I59" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>163</v>
@@ -3587,21 +3688,24 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>143</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="K60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>163</v>
@@ -3609,21 +3713,24 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="K61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>262</v>
+      <c r="B62" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>163</v>
@@ -3634,18 +3741,18 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="6" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>163</v>
@@ -3654,14 +3761,25 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J63" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>163</v>
@@ -3677,13 +3795,16 @@
         <v>20</v>
       </c>
       <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>163</v>
@@ -3699,15 +3820,15 @@
         <v>20</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>163</v>
@@ -3717,13 +3838,19 @@
       <c r="F66" s="8"/>
       <c r="G66" s="10"/>
       <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
+        <v>346</v>
+      </c>
+      <c r="K66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>163</v>
@@ -3739,15 +3866,18 @@
         <v>20</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>163</v>
@@ -3758,12 +3888,12 @@
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>163</v>
@@ -3776,21 +3906,21 @@
         <v>20</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
@@ -3803,18 +3933,18 @@
         <v>20</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
@@ -3824,21 +3954,21 @@
         <v>13</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
@@ -3846,21 +3976,21 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
@@ -3868,21 +3998,21 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
@@ -3892,21 +4022,21 @@
         <v>13</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>291</v>
+      <c r="B75" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
@@ -3916,21 +4046,27 @@
         <v>13</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3938,38 +4074,38 @@
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
       <c r="I76" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
@@ -3979,18 +4115,18 @@
         <v>13</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>163</v>
@@ -4001,12 +4137,12 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>163</v>
@@ -4022,16 +4158,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4040,7 +4176,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="8"/>
@@ -4054,10 +4190,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
@@ -4076,7 +4212,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="8"/>
@@ -4090,10 +4226,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
@@ -4103,10 +4239,10 @@
         <v>53</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4114,7 +4250,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>163</v>
@@ -4130,14 +4266,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>13</v>
@@ -4146,7 +4282,7 @@
         <v>27</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4154,7 +4290,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="10"/>
@@ -4168,7 +4304,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="10"/>
@@ -4182,10 +4318,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -4198,10 +4334,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -4214,10 +4350,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -4230,10 +4366,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -4246,10 +4382,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -4262,10 +4398,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -4278,10 +4414,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4294,10 +4430,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -4310,10 +4446,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -4326,10 +4462,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8" t="s">
@@ -4342,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4350,10 +4486,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -4366,7 +4502,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>163</v>
@@ -4382,10 +4518,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -4398,10 +4534,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -4414,10 +4550,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
@@ -4430,10 +4566,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -4446,10 +4582,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
@@ -4462,10 +4598,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4478,10 +4614,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -4494,10 +4630,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="s">
@@ -4510,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
+++ b/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\codigo\01-preprocesamiento-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADEFEA-FA16-41F7-B97D-88F27D19FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6B11F-7E19-4710-9F55-DE694A0B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,127 @@
         </r>
       </text>
     </comment>
+    <comment ref="B88" authorId="1" shapeId="0" xr:uid="{3C7EE77E-6542-4C2D-B689-4E9E70376F8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Silvia Gonzalez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tiene el valor exterior</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{2451DF93-DB86-4A1F-B070-657D45C11300}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C103" authorId="0" shapeId="0" xr:uid="{586B480B-DB5B-41B7-8426-49D113623992}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{22E153EF-1BB5-4E1A-BA39-B45D210051F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C105" authorId="0" shapeId="0" xr:uid="{64243220-8DC2-4D16-92C5-BCBD854F1245}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{5E8DD8F2-E395-42BB-A942-78B04F004BF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABb4BQ9t8
+Silvia Gonzalez    (2025-01-18 15:05:35)
+la hago yo que tengo tambien cocina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C107" authorId="0" shapeId="0" xr:uid="{BD3125B6-6370-4A3C-A727-24F3B83BC206}">
       <text>
         <r>
           <rPr>
@@ -113,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="355">
   <si>
     <t>orden_dataframe</t>
   </si>
@@ -1368,6 +1488,24 @@
   </si>
   <si>
     <t>1,0,nan (ver si lo juntamos con el tipo que es señorial, economica,…)</t>
+  </si>
+  <si>
+    <t>eliminar y poner los valores en €_comunidad_mes</t>
+  </si>
+  <si>
+    <t>En redpiso se quitaron las comas por lo que valores como 20,00 aparece ahora como 2000, hay que dividir entre 100 todos los valores</t>
+  </si>
+  <si>
+    <t>valores muy dispares, ir al origen de estos valores pisos.com para ver que hacer</t>
+  </si>
+  <si>
+    <t>los nan -1?</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>eliminarla por que pondremos sus valores en la columna exterior</t>
   </si>
 </sst>
 </file>
@@ -1564,13 +1702,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1831,10 +1971,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3764,7 +3904,7 @@
       <c r="H63" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" t="s">
         <v>160</v>
       </c>
       <c r="J63" t="s">
@@ -3911,6 +4051,12 @@
       <c r="H69" s="8" t="s">
         <v>272</v>
       </c>
+      <c r="I69" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
@@ -3920,7 +4066,7 @@
         <v>273</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
@@ -3944,7 +4090,7 @@
         <v>276</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
@@ -4027,6 +4173,12 @@
       <c r="H74" s="5" t="s">
         <v>287</v>
       </c>
+      <c r="J74" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
@@ -4054,7 +4206,7 @@
       <c r="I75" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J75" s="23" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4153,7 +4305,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -4171,7 +4323,7 @@
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -4185,7 +4337,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -4207,7 +4359,7 @@
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -4221,7 +4373,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -4245,7 +4397,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -4261,7 +4413,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -4285,35 +4437,48 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>353</v>
+      </c>
+      <c r="J88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J89" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -4329,7 +4494,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -4345,7 +4510,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -4361,7 +4526,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -4377,7 +4542,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -4393,7 +4558,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -4409,7 +4574,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -4521,7 +4686,7 @@
         <v>327</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -4537,7 +4702,7 @@
         <v>328</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -4553,7 +4718,7 @@
         <v>329</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
@@ -4569,7 +4734,7 @@
         <v>330</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -4585,7 +4750,7 @@
         <v>331</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
@@ -4601,7 +4766,7 @@
         <v>332</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4617,7 +4782,7 @@
         <v>333</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>

--- a/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
+++ b/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\codigo\01-preprocesamiento-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6B11F-7E19-4710-9F55-DE694A0B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776D886-6791-4901-9CD3-5468910E3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,75 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Silvia Gonzalez</author>
     <author/>
-    <author>Silvia Gonzalez</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{E7C0F644-52ED-4E8D-997E-63A8C2FCCEFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Silvia Gonzalez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Calcular la letra si tenemos el consumo consumoce_ano 
+A: Menos de 50 kWh/m²/año
+B: 51-90 kWh/m²/año
+C: 91-150 kWh/m²/año
+D: 151-230 kWh/m²/año
+E: 231-330 kWh/m²/año
+F: 331-450 kWh/m²/año
+G: Más de 450 kWh/m²/año
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{7E6E3F69-ED84-41DE-B703-11460B93E0D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Silvia Gonzalez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+emisiones_CO2 tiene valores de letra y kg CO2 m2 de las emisiones de la vivienda. No confuncir con letrace y consumoce_ano que hace referencia al consumo energetico de la vivienda.
+Valores en el caso de las emisiones:
+A: Menos de 10 kg CO2/m²/año
+B: 10-20 kg CO2/m²/año
+C: 20-35 kg CO2/m²/año
+D: 35-55 kg CO2/m²/año
+E: 55-75 kg CO2/m²/año
+F: 75-100 kg CO2/m²/año
+G: Más de 100 kg CO2/m²/año</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="1" shapeId="0" xr:uid="{6A26C071-83A7-4F34-8581-F67227E14601}">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{6A26C071-83A7-4F34-8581-F67227E14601}">
       <text>
         <r>
           <rPr>
@@ -71,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B86" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="1" shapeId="0" xr:uid="{3C7EE77E-6542-4C2D-B689-4E9E70376F8D}">
+    <comment ref="B88" authorId="0" shapeId="0" xr:uid="{3C7EE77E-6542-4C2D-B689-4E9E70376F8D}">
       <text>
         <r>
           <rPr>
@@ -111,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C101" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{2451DF93-DB86-4A1F-B070-657D45C11300}">
+    <comment ref="C102" authorId="1" shapeId="0" xr:uid="{2451DF93-DB86-4A1F-B070-657D45C11300}">
       <text>
         <r>
           <rPr>
@@ -143,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C103" authorId="0" shapeId="0" xr:uid="{586B480B-DB5B-41B7-8426-49D113623992}">
+    <comment ref="C103" authorId="1" shapeId="0" xr:uid="{586B480B-DB5B-41B7-8426-49D113623992}">
       <text>
         <r>
           <rPr>
@@ -159,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C104" authorId="0" shapeId="0" xr:uid="{22E153EF-1BB5-4E1A-BA39-B45D210051F8}">
+    <comment ref="C104" authorId="1" shapeId="0" xr:uid="{22E153EF-1BB5-4E1A-BA39-B45D210051F8}">
       <text>
         <r>
           <rPr>
@@ -175,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C105" authorId="0" shapeId="0" xr:uid="{64243220-8DC2-4D16-92C5-BCBD854F1245}">
+    <comment ref="C105" authorId="1" shapeId="0" xr:uid="{64243220-8DC2-4D16-92C5-BCBD854F1245}">
       <text>
         <r>
           <rPr>
@@ -191,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{5E8DD8F2-E395-42BB-A942-78B04F004BF2}">
+    <comment ref="C106" authorId="1" shapeId="0" xr:uid="{5E8DD8F2-E395-42BB-A942-78B04F004BF2}">
       <text>
         <r>
           <rPr>
@@ -207,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C107" authorId="0" shapeId="0" xr:uid="{BD3125B6-6370-4A3C-A727-24F3B83BC206}">
+    <comment ref="C107" authorId="1" shapeId="0" xr:uid="{BD3125B6-6370-4A3C-A727-24F3B83BC206}">
       <text>
         <r>
           <rPr>
@@ -233,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="357">
   <si>
     <t>orden_dataframe</t>
   </si>
@@ -527,9 +591,6 @@
   </si>
   <si>
     <t>letrace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letra de calificación energética </t>
   </si>
   <si>
     <t xml:space="preserve"> En el orden del abecederario empezamos con la "A" como la calificacion mas eficiente y se termina en la "G" como la mas ineficiente.</t>
@@ -1506,6 +1567,15 @@
   </si>
   <si>
     <t>eliminarla por que pondremos sus valores en la columna exterior</t>
+  </si>
+  <si>
+    <t>eliminar dejamos solo orientacion_norte,orientacion_sur,orientacion_este,orientacion_oeste</t>
+  </si>
+  <si>
+    <t>si alguna de las columnas que dejamos tiene valor 1 poner el resto 0, si no hay ningun 1 en las columnas se ponen como nulos. Dar a los nulos el valor -1</t>
+  </si>
+  <si>
+    <t>Letra de certificacion energética.Esta letra indica la eficiencia energética de la vivienda en términos de consumo de energía. Las letras van desde la A (más eficiente) hasta la G (menos eficiente). Esta clasificación se basa en el consumo anual de energía de la vivienda.</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1709,9 +1779,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,10 +2038,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1985,7 +2052,7 @@
     <col min="4" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="87" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="95.08984375" customWidth="1"/>
     <col min="10" max="10" width="78.26953125" customWidth="1"/>
     <col min="11" max="11" width="177.36328125" bestFit="1" customWidth="1"/>
@@ -2541,16 +2608,16 @@
         <v>20</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2558,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -2574,16 +2641,16 @@
         <v>20</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2591,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -2601,22 +2668,22 @@
         <v>13</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2624,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -2640,16 +2707,16 @@
         <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2657,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2670,19 +2737,19 @@
         <v>13</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2690,7 +2757,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -2706,16 +2773,16 @@
         <v>20</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2723,7 +2790,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -2739,16 +2806,16 @@
         <v>27</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2756,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -2766,22 +2833,22 @@
         <v>13</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2789,7 +2856,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -2805,16 +2872,16 @@
         <v>20</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2822,7 +2889,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -2835,19 +2902,19 @@
         <v>13</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2855,32 +2922,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2888,7 +2955,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -2901,19 +2968,19 @@
         <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2921,7 +2988,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2934,19 +3001,19 @@
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2954,7 +3021,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -2967,19 +3034,19 @@
         <v>13</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2987,32 +3054,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3020,10 +3087,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
@@ -3036,16 +3103,16 @@
         <v>20</v>
       </c>
       <c r="H32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3053,10 +3120,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -3064,16 +3131,16 @@
         <v>13</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="J33" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3081,10 +3148,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
@@ -3094,16 +3161,16 @@
         <v>13</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3111,10 +3178,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
@@ -3127,16 +3194,16 @@
         <v>20</v>
       </c>
       <c r="H35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3144,29 +3211,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="J36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="K36" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3174,10 +3241,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
@@ -3187,19 +3254,19 @@
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3207,10 +3274,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
@@ -3223,10 +3290,10 @@
         <v>20</v>
       </c>
       <c r="H38" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3234,14 +3301,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>20</v>
@@ -3250,10 +3317,10 @@
         <v>20</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3261,10 +3328,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
@@ -3277,10 +3344,10 @@
         <v>20</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3288,10 +3355,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -3304,10 +3371,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3315,10 +3382,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -3331,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3339,10 +3406,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
@@ -3355,16 +3422,16 @@
         <v>20</v>
       </c>
       <c r="H43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3372,14 +3439,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>20</v>
@@ -3388,16 +3455,16 @@
         <v>20</v>
       </c>
       <c r="H44" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="J44" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3405,14 +3472,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>20</v>
@@ -3421,13 +3488,13 @@
         <v>20</v>
       </c>
       <c r="H45" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3435,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
@@ -3451,16 +3518,16 @@
         <v>20</v>
       </c>
       <c r="H46" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3468,10 +3535,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
@@ -3484,10 +3551,10 @@
         <v>20</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3495,10 +3562,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8" t="s">
@@ -3511,10 +3578,10 @@
         <v>20</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3522,10 +3589,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
@@ -3538,10 +3605,10 @@
         <v>20</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3549,10 +3616,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
@@ -3565,10 +3632,10 @@
         <v>20</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3576,10 +3643,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
@@ -3592,10 +3659,10 @@
         <v>20</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3603,10 +3670,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
@@ -3620,7 +3687,7 @@
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,10 +3695,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
@@ -3644,10 +3711,10 @@
         <v>20</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3655,10 +3722,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
@@ -3671,13 +3738,13 @@
         <v>20</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3685,10 +3752,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8" t="s">
@@ -3698,10 +3765,10 @@
         <v>13</v>
       </c>
       <c r="G55" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3709,10 +3776,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
@@ -3725,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3736,27 +3803,27 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3764,27 +3831,27 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3792,10 +3859,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8" t="s">
@@ -3805,14 +3872,14 @@
         <v>13</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K59" t="s">
         <v>338</v>
-      </c>
-      <c r="K59" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3820,24 +3887,24 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3845,24 +3912,24 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3870,10 +3937,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3881,10 +3948,10 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3892,26 +3959,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" t="s">
+        <v>159</v>
+      </c>
+      <c r="J63" t="s">
+        <v>343</v>
+      </c>
+      <c r="K63" t="s">
         <v>341</v>
-      </c>
-      <c r="I63" t="s">
-        <v>160</v>
-      </c>
-      <c r="J63" t="s">
-        <v>344</v>
-      </c>
-      <c r="K63" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3919,10 +3986,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
@@ -3936,7 +4003,7 @@
       </c>
       <c r="H64" s="10"/>
       <c r="J64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3944,23 +4011,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3968,10 +4035,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3979,10 +4046,10 @@
       <c r="G66" s="10"/>
       <c r="H66" s="8"/>
       <c r="J66" t="s">
+        <v>345</v>
+      </c>
+      <c r="K66" t="s">
         <v>346</v>
-      </c>
-      <c r="K66" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3990,10 +4057,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
@@ -4006,10 +4073,10 @@
         <v>20</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4017,10 +4084,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -4033,10 +4100,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8" t="s">
@@ -4046,16 +4113,16 @@
         <v>20</v>
       </c>
       <c r="G69" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="I69" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4063,10 +4130,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
@@ -4079,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4087,10 +4154,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
@@ -4100,10 +4167,10 @@
         <v>13</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4111,10 +4178,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
@@ -4122,10 +4189,10 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H72" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4133,10 +4200,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
@@ -4144,10 +4211,10 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4155,10 +4222,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
@@ -4168,16 +4235,16 @@
         <v>13</v>
       </c>
       <c r="G74" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>352</v>
+      <c r="J74" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4185,10 +4252,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
@@ -4198,16 +4265,16 @@
         <v>13</v>
       </c>
       <c r="G75" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="I75" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4215,10 +4282,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4226,7 +4293,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
       <c r="I76" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4234,19 +4301,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4254,10 +4321,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
@@ -4267,10 +4334,10 @@
         <v>13</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4278,10 +4345,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4294,10 +4361,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4310,16 +4377,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4328,7 +4395,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="8"/>
@@ -4342,10 +4409,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
@@ -4364,7 +4431,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="8"/>
@@ -4378,10 +4445,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
@@ -4391,10 +4458,10 @@
         <v>53</v>
       </c>
       <c r="G85" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4402,10 +4469,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4418,14 +4485,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>13</v>
@@ -4434,7 +4501,7 @@
         <v>27</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4442,10 +4509,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -4453,10 +4520,10 @@
       <c r="G88" s="10"/>
       <c r="H88" s="5"/>
       <c r="I88" t="s">
+        <v>352</v>
+      </c>
+      <c r="J88" t="s">
         <v>353</v>
-      </c>
-      <c r="J88" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4464,10 +4531,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
@@ -4475,7 +4542,7 @@
       <c r="G89" s="10"/>
       <c r="H89" s="5"/>
       <c r="J89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,10 +4550,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -4499,10 +4566,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -4515,10 +4582,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -4531,10 +4598,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -4547,10 +4614,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -4563,10 +4630,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -4579,10 +4646,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4590,15 +4657,15 @@
       <c r="G96" s="10"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -4606,15 +4673,15 @@
       <c r="G97" s="10"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -4622,15 +4689,15 @@
       <c r="G98" s="10"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8" t="s">
@@ -4643,18 +4710,18 @@
         <v>20</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -4662,15 +4729,15 @@
       <c r="G100" s="10"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -4678,15 +4745,15 @@
       <c r="G101" s="10"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -4694,15 +4761,15 @@
       <c r="G102" s="10"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -4710,31 +4777,37 @@
       <c r="G103" s="10"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="5"/>
-    </row>
-    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J104" t="s">
+        <v>354</v>
+      </c>
+      <c r="K104" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -4742,15 +4815,15 @@
       <c r="G105" s="10"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
@@ -4758,15 +4831,15 @@
       <c r="G106" s="10"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4774,15 +4847,15 @@
       <c r="G107" s="10"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -4790,15 +4863,15 @@
       <c r="G108" s="10"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="s">
@@ -4811,10 +4884,10 @@
         <v>20</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20"/>
       <c r="B110" s="10"/>
       <c r="C110" s="2"/>
@@ -4824,7 +4897,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="20"/>
       <c r="B111" s="10"/>
       <c r="C111" s="2"/>
@@ -4834,7 +4907,7 @@
       <c r="G111" s="10"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20"/>
       <c r="B112" s="10"/>
       <c r="C112" s="2"/>
@@ -13732,8 +13805,8 @@
     <hyperlink ref="H72" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
+++ b/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\codigo\01-preprocesamiento-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776D886-6791-4901-9CD3-5468910E3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B4A36-D70A-4081-AC22-FD9544EE1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,10 +2038,10 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4285,7 +4285,7 @@
         <v>290</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>

--- a/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
+++ b/codigo/01-preprocesamiento-de-datos/Columnas_Dataset_Pisos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extas\Documents\GitHub\precios-de-vivienda-madrid\codigo\01-preprocesamiento-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300B105-A8E2-40C1-9F14-1ED34848C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5CE92B-1D83-4B03-982B-D1C0902040D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,6 +111,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{AD7A90AC-D15C-4470-8733-268F243C6271}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Silvia Gonzalez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+se ha unido a la columna terrazas, tiene valor 2 si tiene 2 terraza</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B33" authorId="0" shapeId="0" xr:uid="{F6BDB7D1-3834-445F-8BA0-2BCA5E704D64}">
       <text>
         <r>
@@ -136,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0" shapeId="0" xr:uid="{6A26C071-83A7-4F34-8581-F67227E14601}">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{6A26C071-83A7-4F34-8581-F67227E14601}">
       <text>
         <r>
           <rPr>
@@ -160,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B87" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -176,31 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="0" shapeId="0" xr:uid="{3C7EE77E-6542-4C2D-B689-4E9E70376F8D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Silvia Gonzalez:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-tiene el valor exterior</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E104" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E99" authorId="1" shapeId="0" xr:uid="{2451DF93-DB86-4A1F-B070-657D45C11300}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E105" authorId="1" shapeId="0" xr:uid="{2451DF93-DB86-4A1F-B070-657D45C11300}">
+    <comment ref="E100" authorId="1" shapeId="0" xr:uid="{586B480B-DB5B-41B7-8426-49D113623992}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E106" authorId="1" shapeId="0" xr:uid="{586B480B-DB5B-41B7-8426-49D113623992}">
+    <comment ref="E101" authorId="1" shapeId="0" xr:uid="{64243220-8DC2-4D16-92C5-BCBD854F1245}">
       <text>
         <r>
           <rPr>
@@ -248,55 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E107" authorId="1" shapeId="0" xr:uid="{22E153EF-1BB5-4E1A-BA39-B45D210051F8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABb4BQ9t8
-Silvia Gonzalez    (2025-01-18 15:05:35)
-la hago yo que tengo tambien cocina</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E108" authorId="1" shapeId="0" xr:uid="{64243220-8DC2-4D16-92C5-BCBD854F1245}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABb4BQ9t8
-Silvia Gonzalez    (2025-01-18 15:05:35)
-la hago yo que tengo tambien cocina</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E109" authorId="1" shapeId="0" xr:uid="{5E8DD8F2-E395-42BB-A942-78B04F004BF2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABb4BQ9t8
-Silvia Gonzalez    (2025-01-18 15:05:35)
-la hago yo que tengo tambien cocina</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E110" authorId="1" shapeId="0" xr:uid="{BD3125B6-6370-4A3C-A727-24F3B83BC206}">
+    <comment ref="E102" authorId="1" shapeId="0" xr:uid="{5E8DD8F2-E395-42BB-A942-78B04F004BF2}">
       <text>
         <r>
           <rPr>
@@ -322,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="346">
   <si>
     <t>orden_dataframe</t>
   </si>
@@ -1298,18 +1250,6 @@
     <t>descripcion_extendida</t>
   </si>
   <si>
-    <t>€_comunidad_mes</t>
-  </si>
-  <si>
-    <t>Más de 100 €, Entre 40 y 60 €, Entre 80 y 100 €, Entre 60 y 80 €, Entre 20 y 40 €, Trimestral, 75 €, entre otros...</t>
-  </si>
-  <si>
-    <t>gasto de comunidad por mes</t>
-  </si>
-  <si>
-    <t>acceso_minusvalido</t>
-  </si>
-  <si>
     <t>Alejandra</t>
   </si>
   <si>
@@ -1329,17 +1269,6 @@
       </rPr>
       <t>(IMPORTANTE: el término adecuado es 'persona con discapacidad'.)</t>
     </r>
-  </si>
-  <si>
-    <t>orientacion</t>
-  </si>
-  <si>
-    <t>Sur, Este, Oeste, Norte, Sureste, Suroeste, Noreste, Noroeste, entre otros...</t>
-  </si>
-  <si>
-    <t>valores 'orientacion_este', 'orientacion_norte',
-       'orientacion_norte_sur', 'orientacion_oeste', 'orientacion_sur',
-       'orientacion_sur_este'</t>
   </si>
   <si>
     <t>web</t>
@@ -1465,18 +1394,12 @@
     <t>superficie util</t>
   </si>
   <si>
-    <t>vista_zona</t>
-  </si>
-  <si>
     <t>gastos_comunidad</t>
   </si>
   <si>
     <t>zonas_verdes</t>
   </si>
   <si>
-    <t>terrazas</t>
-  </si>
-  <si>
     <t>puerta_seguridad</t>
   </si>
   <si>
@@ -1504,30 +1427,18 @@
     <t>Tipo de fachada: acabo exterior de la propiedad</t>
   </si>
   <si>
-    <t>cantidad_dormitorios</t>
-  </si>
-  <si>
-    <t>cocina_1</t>
-  </si>
-  <si>
     <t>orientacion_este</t>
   </si>
   <si>
     <t>orientacion_norte</t>
   </si>
   <si>
-    <t>orientacion_norte,_sur</t>
-  </si>
-  <si>
     <t>orientacion_oeste</t>
   </si>
   <si>
     <t>orientacion_sur</t>
   </si>
   <si>
-    <t>orientacion_sur,_este</t>
-  </si>
-  <si>
     <t>sistema_alarma</t>
   </si>
   <si>
@@ -1576,30 +1487,12 @@
     <t>1,0,nan (ver si lo juntamos con el tipo que es señorial, economica,…)</t>
   </si>
   <si>
-    <t>eliminar y poner los valores en €_comunidad_mes</t>
-  </si>
-  <si>
     <t>En redpiso se quitaron las comas por lo que valores como 20,00 aparece ahora como 2000, hay que dividir entre 100 todos los valores</t>
   </si>
   <si>
-    <t>valores muy dispares, ir al origen de estos valores pisos.com para ver que hacer</t>
-  </si>
-  <si>
     <t>los nan -1?</t>
   </si>
   <si>
-    <t>Exterior</t>
-  </si>
-  <si>
-    <t>eliminarla por que pondremos sus valores en la columna exterior</t>
-  </si>
-  <si>
-    <t>eliminar dejamos solo orientacion_norte,orientacion_sur,orientacion_este,orientacion_oeste</t>
-  </si>
-  <si>
-    <t>si alguna de las columnas que dejamos tiene valor 1 poner el resto 0, si no hay ningun 1 en las columnas se ponen como nulos. Dar a los nulos el valor -1</t>
-  </si>
-  <si>
     <t>Letra de certificacion energética.Esta letra indica la eficiencia energética de la vivienda en términos de consumo de energía. Las letras van desde la A (más eficiente) hasta la G (menos eficiente). Esta clasificación se basa en el consumo anual de energía de la vivienda.</t>
   </si>
   <si>
@@ -1616,6 +1509,15 @@
   </si>
   <si>
     <t>tiene_calefaccion</t>
+  </si>
+  <si>
+    <t>8078 nulos</t>
+  </si>
+  <si>
+    <t>eliminar</t>
+  </si>
+  <si>
+    <t>acceso_discapacitado</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1747,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3619500" cy="914400"/>
@@ -2076,19 +1978,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1003"/>
+  <dimension ref="A1:M995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="4" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="4" width="18.453125" customWidth="1"/>
     <col min="5" max="5" width="19.08984375" customWidth="1"/>
     <col min="6" max="6" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="7.1796875" customWidth="1"/>
@@ -2109,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -2722,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>92</v>
@@ -3144,7 +3047,7 @@
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -3309,7 +3212,7 @@
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -3358,7 +3261,7 @@
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -3758,7 +3661,9 @@
       <c r="B49" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="2" t="s">
         <v>162</v>
@@ -3793,7 +3698,9 @@
       <c r="B50" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="2" t="s">
         <v>162</v>
@@ -3822,7 +3729,9 @@
       <c r="B51" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="2" t="s">
         <v>162</v>
@@ -3851,7 +3760,9 @@
       <c r="B52" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
       <c r="D52" s="8"/>
       <c r="E52" s="2" t="s">
         <v>162</v>
@@ -3880,7 +3791,9 @@
       <c r="B53" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
         <v>162</v>
@@ -3909,7 +3822,9 @@
       <c r="B54" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="2" t="s">
         <v>162</v>
@@ -3938,7 +3853,9 @@
       <c r="B55" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
       <c r="D55" s="8"/>
       <c r="E55" s="2" t="s">
         <v>162</v>
@@ -3965,7 +3882,9 @@
       <c r="B56" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="2" t="s">
         <v>162</v>
@@ -4052,7 +3971,9 @@
       <c r="B59" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
       <c r="D59" s="8"/>
       <c r="E59" s="2" t="s">
         <v>162</v>
@@ -4079,9 +4000,11 @@
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C60" s="8"/>
+        <v>322</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
       <c r="D60" s="8"/>
       <c r="E60" s="2" t="s">
         <v>162</v>
@@ -4109,9 +4032,11 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>323</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
       <c r="D61" s="8"/>
       <c r="E61" s="2" t="s">
         <v>162</v>
@@ -4141,7 +4066,9 @@
       <c r="B62" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
       <c r="D62" s="8"/>
       <c r="E62" s="2" t="s">
         <v>162</v>
@@ -4158,10 +4085,10 @@
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="8" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M62" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4171,7 +4098,9 @@
       <c r="B63" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="8">
+        <v>1</v>
+      </c>
       <c r="D63" s="8"/>
       <c r="E63" s="2" t="s">
         <v>162</v>
@@ -4188,7 +4117,7 @@
         <v>256</v>
       </c>
       <c r="M63" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4198,7 +4127,9 @@
       <c r="B64" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="2" t="s">
         <v>162</v>
@@ -4215,7 +4146,7 @@
         <v>258</v>
       </c>
       <c r="M64" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4236,7 +4167,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>260</v>
@@ -4259,16 +4190,16 @@
       <c r="H66" s="8"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="K66" t="s">
         <v>159</v>
       </c>
       <c r="L66" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M66" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4295,7 +4226,7 @@
       </c>
       <c r="J67" s="10"/>
       <c r="L67" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4342,10 +4273,10 @@
       <c r="I69" s="10"/>
       <c r="J69" s="8"/>
       <c r="L69" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="M69" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4374,7 +4305,7 @@
         <v>267</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4384,7 +4315,9 @@
       <c r="B71" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="16"/>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
       <c r="D71" s="16"/>
       <c r="E71" s="2" t="s">
         <v>162</v>
@@ -4400,7 +4333,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4412,19 +4345,13 @@
         <v>13</v>
       </c>
       <c r="H72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="J72" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4432,7 +4359,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4443,14 +4370,12 @@
       <c r="G73" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>274</v>
+      <c r="H73" s="8"/>
+      <c r="I73" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4458,7 +4383,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4469,14 +4394,12 @@
       <c r="G74" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4484,7 +4407,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -4495,23 +4418,31 @@
       <c r="G75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="17" t="s">
+      <c r="H75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="J75" s="18" t="s">
-        <v>280</v>
+      <c r="L75" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>72</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="B76" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="2" t="s">
         <v>162</v>
       </c>
@@ -4519,12 +4450,20 @@
       <c r="G76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I76" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>283</v>
+      <c r="K76" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,7 +4471,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -4540,55 +4479,36 @@
         <v>162</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="M77" s="23" t="s">
-        <v>351</v>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>74</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,86 +4516,85 @@
         <v>75</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
       <c r="D79" s="8"/>
       <c r="E79" s="2" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="6" t="s">
-        <v>291</v>
+      <c r="G79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>76</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="B80" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="19">
+        <v>0</v>
+      </c>
+      <c r="D80" s="19"/>
       <c r="E80" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>77</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F81" s="8"/>
-      <c r="G81" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>78</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="B82" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="2" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="10"/>
+      <c r="I82" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,13 +4602,11 @@
         <v>79</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -4701,18 +4618,22 @@
         <v>80</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="9" t="s">
-        <v>300</v>
+      <c r="G84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="J84" s="10"/>
     </row>
@@ -4721,7 +4642,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -4729,43 +4650,47 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>82</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>83</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -4777,25 +4702,25 @@
         <v>84</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4803,101 +4728,87 @@
         <v>85</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="8"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="5"/>
+      <c r="L89" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>86</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>310</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>87</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="2" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="5"/>
-      <c r="K91" t="s">
-        <v>352</v>
-      </c>
-      <c r="L91" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>88</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+      <c r="B92" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="2" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="5"/>
-      <c r="L92" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>89</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -4910,12 +4821,12 @@
         <v>90</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -4928,12 +4839,12 @@
         <v>91</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -4946,12 +4857,14 @@
         <v>92</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C96" s="20"/>
+        <v>311</v>
+      </c>
+      <c r="C96" s="20">
+        <v>0</v>
+      </c>
       <c r="D96" s="20"/>
       <c r="E96" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -4964,12 +4877,12 @@
         <v>93</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -4981,31 +4894,41 @@
       <c r="A98" s="7">
         <v>94</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="B98" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>95</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C99" s="20"/>
+        <v>315</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1</v>
+      </c>
       <c r="D99" s="20"/>
       <c r="E99" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
@@ -5018,12 +4941,14 @@
         <v>96</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="20"/>
+        <v>316</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1</v>
+      </c>
       <c r="D100" s="20"/>
       <c r="E100" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -5036,12 +4961,14 @@
         <v>97</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C101" s="20"/>
+        <v>317</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1</v>
+      </c>
       <c r="D101" s="20"/>
       <c r="E101" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -5053,39 +4980,33 @@
       <c r="A102" s="7">
         <v>98</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="B102" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1</v>
+      </c>
+      <c r="D102" s="20"/>
       <c r="E102" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>323</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>99</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -5097,50 +5018,52 @@
       <c r="A104" s="7">
         <v>100</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
+      <c r="B104" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="M104" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="7">
-        <v>101</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A105" s="20"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="7">
-        <v>102</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="106" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="20"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
@@ -5148,41 +5071,23 @@
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="7">
-        <v>103</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A107" s="20"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="5"/>
-      <c r="L107" t="s">
-        <v>354</v>
-      </c>
-      <c r="M107" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="7">
-        <v>104</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A108" s="20"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
@@ -5190,17 +5095,11 @@
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="7">
-        <v>105</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A109" s="20"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
@@ -5208,17 +5107,11 @@
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="7">
-        <v>106</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A110" s="20"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -5226,17 +5119,11 @@
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7">
-        <v>107</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A111" s="20"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -5244,30 +5131,16 @@
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7">
-        <v>108</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="A112" s="20"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="20"/>
@@ -5281,7 +5154,7 @@
       <c r="I113" s="10"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="20"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -15865,108 +15738,12 @@
       <c r="I995" s="10"/>
       <c r="J995" s="5"/>
     </row>
-    <row r="996" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A996" s="20"/>
-      <c r="B996" s="10"/>
-      <c r="C996" s="10"/>
-      <c r="D996" s="10"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="10"/>
-      <c r="G996" s="10"/>
-      <c r="H996" s="10"/>
-      <c r="I996" s="10"/>
-      <c r="J996" s="5"/>
-    </row>
-    <row r="997" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A997" s="20"/>
-      <c r="B997" s="10"/>
-      <c r="C997" s="10"/>
-      <c r="D997" s="10"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="10"/>
-      <c r="G997" s="10"/>
-      <c r="H997" s="10"/>
-      <c r="I997" s="10"/>
-      <c r="J997" s="5"/>
-    </row>
-    <row r="998" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A998" s="20"/>
-      <c r="B998" s="10"/>
-      <c r="C998" s="10"/>
-      <c r="D998" s="10"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="10"/>
-      <c r="G998" s="10"/>
-      <c r="H998" s="10"/>
-      <c r="I998" s="10"/>
-      <c r="J998" s="5"/>
-    </row>
-    <row r="999" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A999" s="20"/>
-      <c r="B999" s="10"/>
-      <c r="C999" s="10"/>
-      <c r="D999" s="10"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="10"/>
-      <c r="G999" s="10"/>
-      <c r="H999" s="10"/>
-      <c r="I999" s="10"/>
-      <c r="J999" s="5"/>
-    </row>
-    <row r="1000" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1000" s="20"/>
-      <c r="B1000" s="10"/>
-      <c r="C1000" s="10"/>
-      <c r="D1000" s="10"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="10"/>
-      <c r="G1000" s="10"/>
-      <c r="H1000" s="10"/>
-      <c r="I1000" s="10"/>
-      <c r="J1000" s="5"/>
-    </row>
-    <row r="1001" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1001" s="20"/>
-      <c r="B1001" s="10"/>
-      <c r="C1001" s="10"/>
-      <c r="D1001" s="10"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="10"/>
-      <c r="G1001" s="10"/>
-      <c r="H1001" s="10"/>
-      <c r="I1001" s="10"/>
-      <c r="J1001" s="5"/>
-    </row>
-    <row r="1002" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1002" s="20"/>
-      <c r="B1002" s="10"/>
-      <c r="C1002" s="10"/>
-      <c r="D1002" s="10"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="10"/>
-      <c r="G1002" s="10"/>
-      <c r="H1002" s="10"/>
-      <c r="I1002" s="10"/>
-      <c r="J1002" s="5"/>
-    </row>
-    <row r="1003" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1003" s="20"/>
-      <c r="B1003" s="10"/>
-      <c r="C1003" s="10"/>
-      <c r="D1003" s="10"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="10"/>
-      <c r="G1003" s="10"/>
-      <c r="H1003" s="10"/>
-      <c r="I1003" s="10"/>
-      <c r="J1003" s="5"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I75" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J75" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I73" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J73" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId5"/>
